--- a/HIMS/HIMS.xlsx
+++ b/HIMS/HIMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/HIMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="6_{A4ED794A-DE12-40BE-998D-B5C646FE7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4607CB-D064-4878-9BB0-83E7E95FB8D4}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="6_{A4ED794A-DE12-40BE-998D-B5C646FE7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F99C721-EDA9-493C-B3A5-CECA444BE3A3}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2080" windowWidth="34080" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41900" yWindow="2260" windowWidth="34080" windowHeight="19020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -354,7 +354,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -466,10 +466,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,10 +791,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -918,11 +913,11 @@
     <v>4</v>
     <v>25.74</v>
     <v>5.65</v>
-    <v>1.1579999999999999</v>
-    <v>-0.19</v>
-    <v>9.4640000000000002E-3</v>
-    <v>-1.1845000000000001E-2</v>
-    <v>0.15</v>
+    <v>1.0726</v>
+    <v>9.5000000000000001E-2</v>
+    <v>3.3939999999999999E-3</v>
+    <v>6.489E-3</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>Hims &amp; Hers Health, Inc. provides a consumer-first platform, which helps customers to fulfill their health and wellness needs. The Company’s digital platform offers access to a provider network, a clinically focused electronic medical record system, digital prescriptions and cloud pharmacy fulfillment. Its digital platform provides access to treatments for a range of conditions, including those related to sexual health, hair loss, dermatology, mental health and weight loss. The Company connects patients to licensed healthcare professionals who can prescribe medications when appropriate. In addition, the Company also offers access to a range of health and wellness products designed to meet individual needs, which includes curated prescription and non-prescription products. Its Hims &amp; Hers mobile application enables consumers to access a range of educational programs, wellness content, community support and other services that promote lifelong health and wellness.</v>
     <v>1046</v>
@@ -930,25 +925,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2269 Chestnut St, #523, SAN FRANCISCO, CA, 94123 US</v>
-    <v>16.28</v>
+    <v>14.984999999999999</v>
     <v>Healthcare Providers &amp; Services</v>
     <v>Stock</v>
-    <v>45512.999503135936</v>
+    <v>45533.886921481251</v>
     <v>0</v>
-    <v>14.75</v>
-    <v>3436205505</v>
+    <v>14.574999999999999</v>
+    <v>3194478745</v>
     <v>HIMS &amp; HERS HEALTH, INC.</v>
     <v>HIMS &amp; HERS HEALTH, INC.</v>
-    <v>15.99</v>
-    <v>206.11179999999999</v>
-    <v>16.04</v>
-    <v>15.85</v>
-    <v>16</v>
+    <v>14.74</v>
+    <v>190.37710000000001</v>
+    <v>14.64</v>
+    <v>14.734999999999999</v>
+    <v>14.78</v>
     <v>216795300</v>
     <v>HIMS</v>
     <v>HIMS &amp; HERS HEALTH, INC. (XNYS:HIMS)</v>
-    <v>18217059</v>
-    <v>9502353</v>
+    <v>4885739</v>
+    <v>10304040</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -1113,9 +1108,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -1533,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF83028-6A67-43A3-B83C-7C8096421613}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1621,11 +1616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAE51CC-89AE-463A-ABE0-F895B09A13C1}">
   <dimension ref="B1:EF93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="S40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE87" sqref="AE87"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4112,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" ref="AH26:BA26" si="16">AH24-AH25</f>
+        <f t="shared" ref="AH26:AQ26" si="16">AH24-AH25</f>
         <v>0</v>
       </c>
       <c r="AI26" s="6">
@@ -4697,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="11">
-        <f t="shared" ref="AH31:BA31" si="24">SUM(AH27:AH30)</f>
+        <f t="shared" ref="AH31:AX31" si="24">SUM(AH27:AH30)</f>
         <v>0</v>
       </c>
       <c r="AI31" s="11">
@@ -4882,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="6">
-        <f t="shared" ref="AH32:BA32" si="27">AH26-AH31</f>
+        <f t="shared" ref="AH32:AX32" si="27">AH26-AH31</f>
         <v>0</v>
       </c>
       <c r="AI32" s="6">
@@ -5253,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="7">
-        <f t="shared" ref="AH35:BA35" si="30">SUM(AH33:AH34)</f>
+        <f t="shared" ref="AH35:AX35" si="30">SUM(AH33:AH34)</f>
         <v>0</v>
       </c>
       <c r="AI35" s="7">
@@ -5438,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="6">
-        <f t="shared" ref="AH36:BA36" si="33">AH32+AH35</f>
+        <f t="shared" ref="AH36:AX36" si="33">AH32+AH35</f>
         <v>0</v>
       </c>
       <c r="AI36" s="6">
@@ -5722,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="6">
-        <f t="shared" ref="AH38:BA38" si="36">SUM(AH36:AH37)</f>
+        <f t="shared" ref="AH38:AX38" si="36">SUM(AH36:AH37)</f>
         <v>0</v>
       </c>
       <c r="AI38" s="6">
@@ -6000,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="6">
-        <f t="shared" ref="AH40:BA40" si="38">SUM(AH38:AH39)</f>
+        <f t="shared" ref="AH40:AW40" si="38">SUM(AH38:AH39)</f>
         <v>0</v>
       </c>
       <c r="AI40" s="6">
@@ -8820,121 +8815,121 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="2:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="16" t="s">
+    <row r="86" spans="2:50" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="8">
         <f>I30/I$24</f>
         <v>0</v>
       </c>
-      <c r="J86" s="16">
+      <c r="J86" s="8">
         <f t="shared" ref="J86:Z86" si="68">J30/J$24</f>
         <v>0</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="N86" s="16">
+      <c r="N86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="O86" s="16">
+      <c r="O86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="P86" s="16">
+      <c r="P86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="16">
+      <c r="Q86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="R86" s="16">
+      <c r="R86" s="8">
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="S86" s="16">
+      <c r="S86" s="8">
         <f t="shared" si="68"/>
         <v>0.18121185340661161</v>
       </c>
-      <c r="T86" s="16">
+      <c r="T86" s="8">
         <f t="shared" si="68"/>
         <v>0.16487742444812592</v>
       </c>
-      <c r="U86" s="16">
+      <c r="U86" s="8">
         <f t="shared" si="68"/>
         <v>0.15994653247365939</v>
       </c>
-      <c r="V86" s="16">
+      <c r="V86" s="8">
         <f t="shared" si="68"/>
         <v>0.14979414367617069</v>
       </c>
-      <c r="W86" s="16">
+      <c r="W86" s="8">
         <f t="shared" si="68"/>
         <v>0.15839064133498604</v>
       </c>
-      <c r="X86" s="16">
+      <c r="X86" s="8">
         <f t="shared" si="68"/>
         <v>0.1310482971709398</v>
       </c>
-      <c r="Y86" s="16">
+      <c r="Y86" s="8">
         <f t="shared" si="68"/>
         <v>0.12426888496644151</v>
       </c>
-      <c r="Z86" s="16">
+      <c r="Z86" s="8">
         <f t="shared" si="68"/>
         <v>0.12847855839416059</v>
       </c>
-      <c r="AM86" s="16" t="e">
+      <c r="AM86" s="8" t="e">
         <f t="shared" ref="AM86:AQ86" si="69">AM30/AM$24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN86" s="16" t="e">
+      <c r="AN86" s="8" t="e">
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO86" s="16">
+      <c r="AO86" s="8">
         <f t="shared" si="69"/>
         <v>0.41806251333318623</v>
       </c>
-      <c r="AP86" s="16">
+      <c r="AP86" s="8">
         <f t="shared" si="69"/>
         <v>0.18635228385549119</v>
       </c>
-      <c r="AQ86" s="16">
+      <c r="AQ86" s="8">
         <f t="shared" si="69"/>
         <v>0.14894839449541283</v>
       </c>
-      <c r="AR86" s="16">
+      <c r="AR86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AS86" s="16">
+      <c r="AS86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AT86" s="16">
+      <c r="AT86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AU86" s="16">
+      <c r="AU86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AV86" s="16">
+      <c r="AV86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AW86" s="16">
+      <c r="AW86" s="8">
         <v>0.25</v>
       </c>
-      <c r="AX86" s="16">
+      <c r="AX86" s="8">
         <v>0.25</v>
       </c>
     </row>
@@ -9279,7 +9274,7 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="18" cm="1">
+      <c r="B2" s="17" cm="1">
         <f t="array" ref="B2">_FV(A1,"Shares outstanding",TRUE)/1000</f>
         <v>216795.3</v>
       </c>
@@ -9318,7 +9313,7 @@
       <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <f>NPV(B7,Model!AY24:EF24)</f>
         <v>42269449.46870061</v>
       </c>
@@ -9327,7 +9322,7 @@
       <c r="A9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <f>B8/B2</f>
         <v>194.97401220737078</v>
       </c>
@@ -9336,9 +9331,9 @@
       <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="19" cm="1">
+      <c r="B10" s="18" cm="1">
         <f t="array" ref="B10">_FV($A$1,"Price")</f>
-        <v>15.85</v>
+        <v>14.734999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9369,7 +9364,7 @@
       <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <f>NPV(B15,Model!AY40:EF40)</f>
         <v>35576105.232878208</v>
       </c>
@@ -9378,7 +9373,7 @@
       <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <f>B16/B2</f>
         <v>164.09998386901472</v>
       </c>
@@ -9387,9 +9382,9 @@
       <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="19" cm="1">
+      <c r="B18" s="18" cm="1">
         <f t="array" ref="B18">_FV($A$1,"Price")</f>
-        <v>15.85</v>
+        <v>14.734999999999999</v>
       </c>
     </row>
   </sheetData>
